--- a/public/template/FaceTag.xlsx
+++ b/public/template/FaceTag.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\模板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\306-frontend\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC13CBE-5CDD-4B4B-9067-74C561B22088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD48A84-E130-4435-A5AF-3A6095A52FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8170" yWindow="1410" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="FaceTag" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -368,7 +368,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
